--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/68/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/68/FD_Curve.xlsx
@@ -463,1102 +463,1102 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0310005</v>
+        <v>0.0310006</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11364</v>
+        <v>0.597174</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.64</v>
+        <v>597.174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620038</v>
+        <v>0.0620166</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>0.6349320000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>634.932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0929936</v>
+        <v>0.0930064</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>0.664039</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>664.039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.123983</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>0.687855</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>687.855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154959</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>0.7083429999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>708.343</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185935</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>0.726185</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>726.1849999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216911</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>0.7423869999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>742.3869999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247888</v>
       </c>
       <c r="B10" t="n">
-        <v>8.912610000000001</v>
+        <v>0.757351</v>
       </c>
       <c r="C10" t="n">
-        <v>8912.610000000001</v>
+        <v>757.351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278817</v>
       </c>
       <c r="B11" t="n">
-        <v>9.551920000000001</v>
+        <v>0.771355</v>
       </c>
       <c r="C11" t="n">
-        <v>9551.92</v>
+        <v>771.355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309742</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1172</v>
+        <v>0.7843640000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10117.2</v>
+        <v>784.364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340667</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4835</v>
+        <v>0.7965639999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>10483.5</v>
+        <v>796.564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371592</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5277</v>
+        <v>0.808115</v>
       </c>
       <c r="C14" t="n">
-        <v>10527.7</v>
+        <v>808.115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402517</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5451</v>
+        <v>0.8190700000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10545.1</v>
+        <v>819.0700000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433442</v>
       </c>
       <c r="B16" t="n">
-        <v>10.5543</v>
+        <v>0.829381</v>
       </c>
       <c r="C16" t="n">
-        <v>10554.3</v>
+        <v>829.381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464363</v>
       </c>
       <c r="B17" t="n">
-        <v>10.5586</v>
+        <v>0.83927</v>
       </c>
       <c r="C17" t="n">
-        <v>10558.6</v>
+        <v>839.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495288</v>
       </c>
       <c r="B18" t="n">
-        <v>10.559</v>
+        <v>0.848673</v>
       </c>
       <c r="C18" t="n">
-        <v>10559</v>
+        <v>848.673</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526213</v>
       </c>
       <c r="B19" t="n">
-        <v>10.5584</v>
+        <v>0.8577319999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>10558.4</v>
+        <v>857.732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557138</v>
       </c>
       <c r="B20" t="n">
-        <v>10.556</v>
+        <v>0.866304</v>
       </c>
       <c r="C20" t="n">
-        <v>10556</v>
+        <v>866.304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588063</v>
       </c>
       <c r="B21" t="n">
-        <v>10.5522</v>
+        <v>0.874549</v>
       </c>
       <c r="C21" t="n">
-        <v>10552.2</v>
+        <v>874.549</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.619105</v>
       </c>
       <c r="B22" t="n">
-        <v>10.5462</v>
+        <v>0.88256</v>
       </c>
       <c r="C22" t="n">
-        <v>10546.2</v>
+        <v>882.5599999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650282</v>
       </c>
       <c r="B23" t="n">
-        <v>10.5392</v>
+        <v>0.8902089999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>10539.2</v>
+        <v>890.2089999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681454</v>
       </c>
       <c r="B24" t="n">
-        <v>10.5307</v>
+        <v>0.897552</v>
       </c>
       <c r="C24" t="n">
-        <v>10530.7</v>
+        <v>897.552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.712627</v>
       </c>
       <c r="B25" t="n">
-        <v>10.5208</v>
+        <v>0.904641</v>
       </c>
       <c r="C25" t="n">
-        <v>10520.8</v>
+        <v>904.641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.743804</v>
       </c>
       <c r="B26" t="n">
-        <v>10.5098</v>
+        <v>0.911401</v>
       </c>
       <c r="C26" t="n">
-        <v>10509.8</v>
+        <v>911.401</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.774977</v>
       </c>
       <c r="B27" t="n">
-        <v>10.4979</v>
+        <v>0.9179</v>
       </c>
       <c r="C27" t="n">
-        <v>10497.9</v>
+        <v>917.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806149</v>
       </c>
       <c r="B28" t="n">
-        <v>10.4849</v>
+        <v>0.924162</v>
       </c>
       <c r="C28" t="n">
-        <v>10484.9</v>
+        <v>924.162</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.837326</v>
       </c>
       <c r="B29" t="n">
-        <v>10.471</v>
+        <v>0.9301849999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>10471</v>
+        <v>930.1849999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868499</v>
       </c>
       <c r="B30" t="n">
-        <v>10.4561</v>
+        <v>0.935972</v>
       </c>
       <c r="C30" t="n">
-        <v>10456.1</v>
+        <v>935.972</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899671</v>
       </c>
       <c r="B31" t="n">
-        <v>10.4402</v>
+        <v>0.94149</v>
       </c>
       <c r="C31" t="n">
-        <v>10440.2</v>
+        <v>941.49</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.930848</v>
       </c>
       <c r="B32" t="n">
-        <v>10.4234</v>
+        <v>0.9468110000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>10423.4</v>
+        <v>946.811</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.962021</v>
       </c>
       <c r="B33" t="n">
-        <v>10.4056</v>
+        <v>0.951819</v>
       </c>
       <c r="C33" t="n">
-        <v>10405.6</v>
+        <v>951.819</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993198</v>
       </c>
       <c r="B34" t="n">
-        <v>10.3868</v>
+        <v>0.956761</v>
       </c>
       <c r="C34" t="n">
-        <v>10386.8</v>
+        <v>956.761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02423</v>
       </c>
       <c r="B35" t="n">
-        <v>10.367</v>
+        <v>0.96141</v>
       </c>
       <c r="C35" t="n">
-        <v>10367</v>
+        <v>961.41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>10.3462</v>
+        <v>0.965997</v>
       </c>
       <c r="C36" t="n">
-        <v>10346.2</v>
+        <v>965.997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>10.324</v>
+        <v>0.9703360000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>10324</v>
+        <v>970.336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11869</v>
+        <v>1.11713</v>
       </c>
       <c r="B38" t="n">
-        <v>10.3004</v>
+        <v>0.974559</v>
       </c>
       <c r="C38" t="n">
-        <v>10300.4</v>
+        <v>974.559</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15006</v>
+        <v>1.1481</v>
       </c>
       <c r="B39" t="n">
-        <v>10.2758</v>
+        <v>0.978555</v>
       </c>
       <c r="C39" t="n">
-        <v>10275.8</v>
+        <v>978.5549999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18144</v>
+        <v>1.17907</v>
       </c>
       <c r="B40" t="n">
-        <v>10.2491</v>
+        <v>0.982452</v>
       </c>
       <c r="C40" t="n">
-        <v>10249.1</v>
+        <v>982.452</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21283</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>10.2216</v>
+        <v>0.986195</v>
       </c>
       <c r="C41" t="n">
-        <v>10221.6</v>
+        <v>986.1950000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24421</v>
+        <v>1.241</v>
       </c>
       <c r="B42" t="n">
-        <v>10.193</v>
+        <v>0.989795</v>
       </c>
       <c r="C42" t="n">
-        <v>10193</v>
+        <v>989.795</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27559</v>
+        <v>1.27197</v>
       </c>
       <c r="B43" t="n">
-        <v>10.1634</v>
+        <v>0.993206</v>
       </c>
       <c r="C43" t="n">
-        <v>10163.4</v>
+        <v>993.206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30697</v>
+        <v>1.30294</v>
       </c>
       <c r="B44" t="n">
-        <v>10.1326</v>
+        <v>0.9965320000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>10132.6</v>
+        <v>996.532</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33835</v>
+        <v>1.33391</v>
       </c>
       <c r="B45" t="n">
-        <v>10.1003</v>
+        <v>0.999694</v>
       </c>
       <c r="C45" t="n">
-        <v>10100.3</v>
+        <v>999.694</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36973</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>10.0669</v>
+        <v>1.00273</v>
       </c>
       <c r="C46" t="n">
-        <v>10066.9</v>
+        <v>1002.73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40111</v>
+        <v>1.39584</v>
       </c>
       <c r="B47" t="n">
-        <v>10.0317</v>
+        <v>1.0056</v>
       </c>
       <c r="C47" t="n">
-        <v>10031.7</v>
+        <v>1005.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43249</v>
+        <v>1.42681</v>
       </c>
       <c r="B48" t="n">
-        <v>9.99457</v>
+        <v>1.00838</v>
       </c>
       <c r="C48" t="n">
-        <v>9994.57</v>
+        <v>1008.38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46387</v>
+        <v>1.45778</v>
       </c>
       <c r="B49" t="n">
-        <v>9.955870000000001</v>
+        <v>1.01099</v>
       </c>
       <c r="C49" t="n">
-        <v>9955.870000000001</v>
+        <v>1010.99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4951</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>9.91573</v>
+        <v>1.01349</v>
       </c>
       <c r="C50" t="n">
-        <v>9915.73</v>
+        <v>1013.49</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52596</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>9.874129999999999</v>
+        <v>1.01585</v>
       </c>
       <c r="C51" t="n">
-        <v>9874.129999999999</v>
+        <v>1015.85</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55715</v>
+        <v>1.55068</v>
       </c>
       <c r="B52" t="n">
-        <v>9.83043</v>
+        <v>1.01809</v>
       </c>
       <c r="C52" t="n">
-        <v>9830.43</v>
+        <v>1018.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58789</v>
+        <v>1.58164</v>
       </c>
       <c r="B53" t="n">
-        <v>9.78557</v>
+        <v>1.02019</v>
       </c>
       <c r="C53" t="n">
-        <v>9785.57</v>
+        <v>1020.19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61911</v>
+        <v>1.61262</v>
       </c>
       <c r="B54" t="n">
-        <v>9.738</v>
+        <v>1.02217</v>
       </c>
       <c r="C54" t="n">
-        <v>9738</v>
+        <v>1022.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64987</v>
+        <v>1.64358</v>
       </c>
       <c r="B55" t="n">
-        <v>9.689290000000002</v>
+        <v>1.02401</v>
       </c>
       <c r="C55" t="n">
-        <v>9689.290000000001</v>
+        <v>1024.01</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68112</v>
+        <v>1.67455</v>
       </c>
       <c r="B56" t="n">
-        <v>9.6374</v>
+        <v>1.02572</v>
       </c>
       <c r="C56" t="n">
-        <v>9637.4</v>
+        <v>1025.72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71195</v>
+        <v>1.70552</v>
       </c>
       <c r="B57" t="n">
-        <v>9.58381</v>
+        <v>1.0273</v>
       </c>
       <c r="C57" t="n">
-        <v>9583.809999999999</v>
+        <v>1027.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74309</v>
+        <v>1.73648</v>
       </c>
       <c r="B58" t="n">
-        <v>9.526870000000001</v>
+        <v>1.02874</v>
       </c>
       <c r="C58" t="n">
-        <v>9526.870000000001</v>
+        <v>1028.74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77401</v>
+        <v>1.76745</v>
       </c>
       <c r="B59" t="n">
-        <v>9.467600000000001</v>
+        <v>1.03005</v>
       </c>
       <c r="C59" t="n">
-        <v>9467.6</v>
+        <v>1030.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80507</v>
+        <v>1.79842</v>
       </c>
       <c r="B60" t="n">
-        <v>9.404950000000001</v>
+        <v>1.03122</v>
       </c>
       <c r="C60" t="n">
-        <v>9404.950000000001</v>
+        <v>1031.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83607</v>
+        <v>1.82939</v>
       </c>
       <c r="B61" t="n">
-        <v>9.339260000000001</v>
+        <v>1.03224</v>
       </c>
       <c r="C61" t="n">
-        <v>9339.26</v>
+        <v>1032.24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86698</v>
+        <v>1.86024</v>
       </c>
       <c r="B62" t="n">
-        <v>9.270809999999999</v>
+        <v>1.03313</v>
       </c>
       <c r="C62" t="n">
-        <v>9270.809999999999</v>
+        <v>1033.13</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89812</v>
+        <v>1.8908</v>
       </c>
       <c r="B63" t="n">
-        <v>9.198410000000001</v>
+        <v>1.03386</v>
       </c>
       <c r="C63" t="n">
-        <v>9198.41</v>
+        <v>1033.86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92893</v>
+        <v>1.92135</v>
       </c>
       <c r="B64" t="n">
-        <v>9.124049999999999</v>
+        <v>1.03445</v>
       </c>
       <c r="C64" t="n">
-        <v>9124.049999999999</v>
+        <v>1034.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96015</v>
+        <v>1.95191</v>
       </c>
       <c r="B65" t="n">
-        <v>9.04574</v>
+        <v>1.03489</v>
       </c>
       <c r="C65" t="n">
-        <v>9045.74</v>
+        <v>1034.89</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99101</v>
+        <v>1.98325</v>
       </c>
       <c r="B66" t="n">
-        <v>8.965629999999999</v>
+        <v>1.03517</v>
       </c>
       <c r="C66" t="n">
-        <v>8965.629999999999</v>
+        <v>1035.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02215</v>
+        <v>2.01483</v>
       </c>
       <c r="B67" t="n">
-        <v>8.88247</v>
+        <v>1.03526</v>
       </c>
       <c r="C67" t="n">
-        <v>8882.469999999999</v>
+        <v>1035.26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05305</v>
+        <v>2.0464</v>
       </c>
       <c r="B68" t="n">
-        <v>8.797030000000001</v>
+        <v>1.03516</v>
       </c>
       <c r="C68" t="n">
-        <v>8797.030000000001</v>
+        <v>1035.16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08399</v>
+        <v>2.07798</v>
       </c>
       <c r="B69" t="n">
-        <v>8.708909999999999</v>
+        <v>1.03489</v>
       </c>
       <c r="C69" t="n">
-        <v>8708.91</v>
+        <v>1034.89</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11526</v>
+        <v>2.10955</v>
       </c>
       <c r="B70" t="n">
-        <v>8.618020000000001</v>
+        <v>1.03445</v>
       </c>
       <c r="C70" t="n">
-        <v>8618.02</v>
+        <v>1034.45</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14598</v>
+        <v>2.14112</v>
       </c>
       <c r="B71" t="n">
-        <v>8.524690000000001</v>
+        <v>1.03383</v>
       </c>
       <c r="C71" t="n">
-        <v>8524.690000000001</v>
+        <v>1033.83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17705</v>
+        <v>2.17269</v>
       </c>
       <c r="B72" t="n">
-        <v>8.42855</v>
+        <v>1.03304</v>
       </c>
       <c r="C72" t="n">
-        <v>8428.549999999999</v>
+        <v>1033.04</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20804</v>
+        <v>2.20427</v>
       </c>
       <c r="B73" t="n">
-        <v>8.330860000000001</v>
+        <v>1.03208</v>
       </c>
       <c r="C73" t="n">
-        <v>8330.860000000001</v>
+        <v>1032.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.239</v>
+        <v>2.23584</v>
       </c>
       <c r="B74" t="n">
-        <v>8.230320000000001</v>
+        <v>1.03096</v>
       </c>
       <c r="C74" t="n">
-        <v>8230.32</v>
+        <v>1030.96</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2699</v>
+        <v>2.26741</v>
       </c>
       <c r="B75" t="n">
-        <v>8.129619999999999</v>
+        <v>1.02968</v>
       </c>
       <c r="C75" t="n">
-        <v>8129.62</v>
+        <v>1029.68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30108</v>
+        <v>2.29899</v>
       </c>
       <c r="B76" t="n">
-        <v>8.02582</v>
+        <v>1.02823</v>
       </c>
       <c r="C76" t="n">
-        <v>8025.82</v>
+        <v>1028.23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33203</v>
+        <v>2.33056</v>
       </c>
       <c r="B77" t="n">
-        <v>7.92203</v>
+        <v>1.02663</v>
       </c>
       <c r="C77" t="n">
-        <v>7922.03</v>
+        <v>1026.63</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36287</v>
+        <v>2.36213</v>
       </c>
       <c r="B78" t="n">
-        <v>7.81729</v>
+        <v>1.02484</v>
       </c>
       <c r="C78" t="n">
-        <v>7817.29</v>
+        <v>1024.84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39425</v>
+        <v>2.39289</v>
       </c>
       <c r="B79" t="n">
-        <v>7.710710000000001</v>
+        <v>1.02289</v>
       </c>
       <c r="C79" t="n">
-        <v>7710.71</v>
+        <v>1022.89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42466</v>
+        <v>2.42362</v>
       </c>
       <c r="B80" t="n">
-        <v>7.606140000000001</v>
+        <v>1.02079</v>
       </c>
       <c r="C80" t="n">
-        <v>7606.14</v>
+        <v>1020.79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45489</v>
+        <v>2.45434</v>
       </c>
       <c r="B81" t="n">
-        <v>7.5039</v>
+        <v>1.01856</v>
       </c>
       <c r="C81" t="n">
-        <v>7503.9</v>
+        <v>1018.56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48479</v>
+        <v>2.48505</v>
       </c>
       <c r="B82" t="n">
-        <v>7.40035</v>
+        <v>1.01618</v>
       </c>
       <c r="C82" t="n">
-        <v>7400.35</v>
+        <v>1016.18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5177</v>
+        <v>2.51577</v>
       </c>
       <c r="B83" t="n">
-        <v>7.289000000000001</v>
+        <v>1.01366</v>
       </c>
       <c r="C83" t="n">
-        <v>7289</v>
+        <v>1013.66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.5493</v>
+        <v>2.5465</v>
       </c>
       <c r="B84" t="n">
-        <v>7.18054</v>
+        <v>1.01099</v>
       </c>
       <c r="C84" t="n">
-        <v>7180.54</v>
+        <v>1010.99</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58039</v>
+        <v>2.57722</v>
       </c>
       <c r="B85" t="n">
-        <v>7.07465</v>
+        <v>1.00815</v>
       </c>
       <c r="C85" t="n">
-        <v>7074.65</v>
+        <v>1008.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61129</v>
+        <v>2.60793</v>
       </c>
       <c r="B86" t="n">
-        <v>6.97118</v>
+        <v>1.00517</v>
       </c>
       <c r="C86" t="n">
-        <v>6971.18</v>
+        <v>1005.17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64055</v>
+        <v>2.63866</v>
       </c>
       <c r="B87" t="n">
-        <v>6.870229999999999</v>
+        <v>1.00202</v>
       </c>
       <c r="C87" t="n">
-        <v>6870.23</v>
+        <v>1002.02</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66981</v>
+        <v>2.66938</v>
       </c>
       <c r="B88" t="n">
-        <v>6.770930000000001</v>
+        <v>0.9986470000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>6770.93</v>
+        <v>998.647</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.7028</v>
+        <v>2.7001</v>
       </c>
       <c r="B89" t="n">
-        <v>6.660850000000001</v>
+        <v>0.995067</v>
       </c>
       <c r="C89" t="n">
-        <v>6660.85</v>
+        <v>995.067</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7348</v>
+        <v>2.73081</v>
       </c>
       <c r="B90" t="n">
-        <v>6.551340000000001</v>
+        <v>0.991302</v>
       </c>
       <c r="C90" t="n">
-        <v>6551.34</v>
+        <v>991.302</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76595</v>
+        <v>2.76154</v>
       </c>
       <c r="B91" t="n">
-        <v>6.44574</v>
+        <v>0.987333</v>
       </c>
       <c r="C91" t="n">
-        <v>6445.74</v>
+        <v>987.333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79582</v>
+        <v>2.79226</v>
       </c>
       <c r="B92" t="n">
-        <v>6.3422</v>
+        <v>0.983176</v>
       </c>
       <c r="C92" t="n">
-        <v>6342.2</v>
+        <v>983.176</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82568</v>
+        <v>2.82297</v>
       </c>
       <c r="B93" t="n">
-        <v>6.23999</v>
+        <v>0.9788</v>
       </c>
       <c r="C93" t="n">
-        <v>6239.99</v>
+        <v>978.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85555</v>
+        <v>2.85369</v>
       </c>
       <c r="B94" t="n">
-        <v>6.1401</v>
+        <v>0.9741920000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>6140.1</v>
+        <v>974.192</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88542</v>
+        <v>2.88442</v>
       </c>
       <c r="B95" t="n">
-        <v>6.04298</v>
+        <v>0.969382</v>
       </c>
       <c r="C95" t="n">
-        <v>6042.98</v>
+        <v>969.3819999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91443</v>
+        <v>2.91514</v>
       </c>
       <c r="B96" t="n">
-        <v>5.94724</v>
+        <v>0.96435</v>
       </c>
       <c r="C96" t="n">
-        <v>5947.24</v>
+        <v>964.35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94589</v>
+        <v>2.94585</v>
       </c>
       <c r="B97" t="n">
-        <v>5.84212</v>
+        <v>0.959044</v>
       </c>
       <c r="C97" t="n">
-        <v>5842.12</v>
+        <v>959.044</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97917</v>
+        <v>2.97658</v>
       </c>
       <c r="B98" t="n">
-        <v>5.73525</v>
+        <v>0.953551</v>
       </c>
       <c r="C98" t="n">
-        <v>5735.25</v>
+        <v>953.551</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01245</v>
+        <v>3.00681</v>
       </c>
       <c r="B99" t="n">
-        <v>5.630800000000001</v>
+        <v>0.947889</v>
       </c>
       <c r="C99" t="n">
-        <v>5630.8</v>
+        <v>947.889</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04419</v>
+        <v>3.03856</v>
       </c>
       <c r="B100" t="n">
-        <v>5.52966</v>
+        <v>0.941713</v>
       </c>
       <c r="C100" t="n">
-        <v>5529.66</v>
+        <v>941.713</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07491</v>
+        <v>3.06979</v>
       </c>
       <c r="B101" t="n">
-        <v>5.4319</v>
+        <v>0.935356</v>
       </c>
       <c r="C101" t="n">
-        <v>5431.9</v>
+        <v>935.356</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10563</v>
+        <v>3.10067</v>
       </c>
       <c r="B102" t="n">
-        <v>5.33689</v>
+        <v>0.928818</v>
       </c>
       <c r="C102" t="n">
-        <v>5336.89</v>
+        <v>928.818</v>
       </c>
     </row>
   </sheetData>
